--- a/src/test/resources/Exceldata/postmorbidity.xlsx
+++ b/src/test/resources/Exceldata/postmorbidity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svatt\git\DieticianAPI-Hackathon\src\test\resources\Exceldata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE86391F-0CCC-4444-8591-429DDB0BA8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D9D855-C8D7-4AB5-B77A-CC6C7462B532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7308" yWindow="204" windowWidth="13884" windowHeight="12216" xr2:uid="{B0A98FBE-6F60-457E-ABA3-969033FE0153}"/>
+    <workbookView xWindow="864" yWindow="672" windowWidth="13884" windowHeight="12216" xr2:uid="{B0A98FBE-6F60-457E-ABA3-969033FE0153}"/>
   </bookViews>
   <sheets>
     <sheet name="PostMorbidity" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
   <si>
     <t>MorbidityName</t>
   </si>
@@ -89,52 +89,19 @@
     <t xml:space="preserve">4VA6C1spondylosis      </t>
   </si>
   <si>
-    <t>12V_12V</t>
-  </si>
-  <si>
-    <t>22V_22V</t>
-  </si>
-  <si>
-    <t>32V_32V</t>
-  </si>
-  <si>
-    <t>42V_42V</t>
-  </si>
-  <si>
-    <t>52V_52V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22VB1AS1BloodTest    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">32VB2AS1BloodTest    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">42VB3AS1BloodTest    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">52VB4AS1BloodTest    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">62VB5AS1BloodTest    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">22VA1C1spondylosis       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">32VA2C1spondylosis       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">42VA3C1spondylosis       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">52VA4C1spondylosis      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">62VA5C1spondylosis      </t>
-  </si>
-  <si>
-    <t>62V_62V</t>
+    <t xml:space="preserve">10VB1AS1BloodTest    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10VB2AS1BloodTest    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10VA1C1spondylosis       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10VA2C1spondylosis       </t>
+  </si>
+  <si>
+    <t>10V_10V</t>
   </si>
 </sst>
 </file>
@@ -493,21 +460,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6196CE6F-435D-4F77-8460-EFB5280CE745}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="23.88671875" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="17.33203125" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="18.109375" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="18.21875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -521,90 +488,35 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
+      <c r="E3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/test/resources/Exceldata/postmorbidity.xlsx
+++ b/src/test/resources/Exceldata/postmorbidity.xlsx
@@ -3,23 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svatt\git\DieticianAPI-Hackathon\src\test\resources\Exceldata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D9D855-C8D7-4AB5-B77A-CC6C7462B532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49ACE18-8E99-42A5-9044-C386E5EF305A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="864" yWindow="672" windowWidth="13884" windowHeight="12216" xr2:uid="{B0A98FBE-6F60-457E-ABA3-969033FE0153}"/>
+    <workbookView xWindow="8076" yWindow="0" windowWidth="13884" windowHeight="12216" firstSheet="1" activeTab="2" xr2:uid="{B0A98FBE-6F60-457E-ABA3-969033FE0153}"/>
   </bookViews>
   <sheets>
     <sheet name="PostMorbidity" sheetId="1" r:id="rId1"/>
     <sheet name="PostMorbidityExist" sheetId="2" r:id="rId2"/>
     <sheet name="PostMorbidityMissing" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="45">
   <si>
     <t>MorbidityName</t>
   </si>
@@ -89,26 +90,85 @@
     <t xml:space="preserve">4VA6C1spondylosis      </t>
   </si>
   <si>
-    <t xml:space="preserve">10VB1AS1BloodTest    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10VB2AS1BloodTest    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10VA1C1spondylosis       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10VA2C1spondylosis       </t>
-  </si>
-  <si>
-    <t>10V_10V</t>
+    <t xml:space="preserve">1Hypothyroid       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2Hypothyroid       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3Hypothyroid       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4Hypothyroid       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5Hypothyroid       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6Hypothyroid       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7Hypothyroid       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8Hypothyroid       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9Hypothyroid       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10Hypothyroid       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  130/210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  130/211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  130/212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  130/213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  130/214</t>
+  </si>
+  <si>
+    <t>1Tc3</t>
+  </si>
+  <si>
+    <t>2Tc4</t>
+  </si>
+  <si>
+    <t>3Tc5</t>
+  </si>
+  <si>
+    <t>4Tc6</t>
+  </si>
+  <si>
+    <t>5Tc7</t>
+  </si>
+  <si>
+    <t>6Tc8</t>
+  </si>
+  <si>
+    <t>7Tc9</t>
+  </si>
+  <si>
+    <t>8Tc10</t>
+  </si>
+  <si>
+    <t>9Tc11</t>
+  </si>
+  <si>
+    <t>10Tc12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -460,18 +520,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6196CE6F-435D-4F77-8460-EFB5280CE745}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.21875" collapsed="true"/>
+    <col min="1" max="1" width="23.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.21875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -490,33 +550,143 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="E2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3"/>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -526,7 +696,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3409D224-3CA7-4CAE-A6D5-15463D81599D}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D6"/>
@@ -534,10 +704,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="23.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.44140625" collapsed="true"/>
+    <col min="1" max="1" width="19.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -567,7 +737,6 @@
       <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="E2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -582,7 +751,6 @@
       <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="E3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -597,7 +765,6 @@
       <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="E4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -612,7 +779,6 @@
       <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="E5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -627,7 +793,6 @@
       <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="E6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -636,18 +801,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6AE82E4-000C-4B86-9B2B-9AC5C1FCFE8D}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.21875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="17.21875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.77734375" collapsed="true"/>
+    <col min="1" max="1" width="22.21875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.21875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -671,7 +836,6 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="E2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -680,7 +844,6 @@
       <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="E3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
@@ -689,7 +852,6 @@
       <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="E4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -698,7 +860,6 @@
       <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="E5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
@@ -707,9 +868,20 @@
       <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="E6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC0C475-0991-438A-8B40-0256C8A351D4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>